--- a/outputs/BURs/tmp_PES.xlsx
+++ b/outputs/BURs/tmp_PES.xlsx
@@ -6,20 +6,22 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PES APAC" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PES EMEA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PES NA Motors and Drives" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="PES NA Motors Solutions" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="PES NA Sales" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="PES NA Strategy &amp; Mktg" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="PES Segment Functions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="L1_PES" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Climate Solutions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Commercial Systems" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PES APAC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PES EMEA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="PES NA Motors Solutions" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="PES NA Motors and Drives" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PES NA Sales" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="PES NA Strategy &amp; Mktg" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="PES Segment Functions" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="L1_PES" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -84,7 +86,7 @@
     <t xml:space="preserve">PES</t>
   </si>
   <si>
-    <t xml:space="preserve">PES APAC</t>
+    <t xml:space="preserve">Climate Solutions</t>
   </si>
   <si>
     <t xml:space="preserve">PY Actual</t>
@@ -96,13 +98,19 @@
     <t xml:space="preserve">CY Actual</t>
   </si>
   <si>
+    <t xml:space="preserve">Commercial Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PES APAC</t>
+  </si>
+  <si>
     <t xml:space="preserve">PES EMEA</t>
   </si>
   <si>
-    <t xml:space="preserve">PES NA Motors and Drives</t>
+    <t xml:space="preserve">PES NA Motors Solutions</t>
   </si>
   <si>
-    <t xml:space="preserve">PES NA Motors Solutions</t>
+    <t xml:space="preserve">PES NA Motors and Drives</t>
   </si>
   <si>
     <t xml:space="preserve">PES NA Sales</t>
@@ -519,52 +527,40 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.307692307692308</v>
+        <v>1.3214</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1404</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2"/>
+        <v>0.1373</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1379</v>
+      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.4158</v>
       </c>
       <c r="I2" t="n">
-        <v>0.125</v>
+        <v>0.2273</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>1.1429</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3529</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
+        <v>1.7476</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
       <c r="S2"/>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
+      <c r="T2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -576,57 +572,39 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.12636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.12357</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.12411</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.37422</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.20457</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>1.02861</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.5</v>
-      </c>
+        <v>1.57284</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -639,15 +617,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4"/>
+        <v>1.3214</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1404</v>
+      </c>
       <c r="F4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G4"/>
+        <v>0.1373</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1379</v>
+      </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.4158</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -661,6 +643,404 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0283</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0214</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="n">
+        <v>0.01188</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00684</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02547</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00396</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00963</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01017</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00396</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00513</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01926</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.00981</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.01215</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.02817</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0283</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.569343065693431</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6429</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6207</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6923</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2308</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5185</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6452</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5217</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.470588235294118</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5882</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4706</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,52 +1129,40 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>2.2439</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3421</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.1613</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.8387</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.1053</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>1.1111</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="M2"/>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -806,57 +1174,39 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.30789</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.14517</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.29997</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.75483</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.09477</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.99999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.5</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -869,15 +1219,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2.2439</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
+        <v>0.3421</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1613</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3333</v>
+      </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.8387</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -979,55 +1333,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.685185185185185</v>
+        <v>0.0422</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8333</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7692</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="L2" t="n">
-        <v>0.625</v>
+        <v>0.0025</v>
       </c>
       <c r="M2" t="n">
-        <v>0.75</v>
+        <v>0.0072</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8333</v>
+        <v>0.0024</v>
       </c>
       <c r="O2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7857</v>
+        <v>0.0097</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="R2" t="n">
-        <v>0.75</v>
+        <v>0.0073</v>
       </c>
       <c r="S2" t="n">
-        <v>0.75</v>
+        <v>0.0124</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5455</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="3">
@@ -1040,56 +1394,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.00216</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.00225</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.00648</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.00216</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.00873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.00873</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.00657</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.01116</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.02646</v>
       </c>
     </row>
     <row r="4">
@@ -1103,19 +1455,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.214285714285714</v>
+        <v>0.0422</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2143</v>
+        <v>0</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1129,6 +1481,160 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.307692307692308</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1217,39 +1723,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.0169</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2"/>
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0.0041</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2"/>
-      <c r="S2"/>
+        <v>0.0044</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0044</v>
+      </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="3">
@@ -1262,56 +1784,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.00369</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.00369</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.00396</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.00396</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.00396</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.01179</v>
       </c>
     </row>
     <row r="4">
@@ -1325,13 +1845,17 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.0169</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -1347,6 +1871,160 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1435,45 +2113,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+        <v>0.0736</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3333</v>
+        <v>0.006</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5556</v>
+        <v>0.006</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.0122</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.0185</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.0061</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0.0367</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R2"/>
+        <v>0.0061</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0061</v>
+      </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3333</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="3">
@@ -1486,56 +2174,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.0054</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.0054</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.01098</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.01665</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.00549</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.03303</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.00549</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.00549</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.01683</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.02772</v>
       </c>
     </row>
     <row r="4">
@@ -1549,19 +2235,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.636363636363636</v>
+        <v>0.0736</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8571</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6364</v>
+        <v>0</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1575,6 +2261,148 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1663,36 +2491,56 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.777777777777778</v>
+        <v>0.0474</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+        <v>0.0059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0099</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0257</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1704,57 +2552,255 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.00531</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.00531</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.00351</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.00351</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.00711</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.01413</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.00351</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.00891</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.0108</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.02313</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0474</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.685185185185185</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.7857</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5455</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2143</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1843,43 +2889,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="E2"/>
+        <v>0.1229</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2"/>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
+        <v>0.0241</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0238</v>
+      </c>
       <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2"/>
+        <v>0.0477</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0059</v>
+      </c>
       <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2"/>
+        <v>0.0366</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0301</v>
+      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.0722</v>
       </c>
     </row>
     <row r="3">
@@ -1892,56 +2950,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.02169</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.02142</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.04293</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.00531</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0.03294</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.02709</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.06498</v>
       </c>
     </row>
     <row r="4">
@@ -1955,19 +3011,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.1229</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1981,6 +3037,158 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6364</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2069,55 +3277,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.569343065693431</v>
+        <v>0.0993</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6429</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6207</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5714</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6923</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2308</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5185</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7</v>
+        <v>0.0645</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5833</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6452</v>
+        <v>0.0645</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4286</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.625</v>
+        <v>0.0333</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5217</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="3">
@@ -2130,56 +3338,54 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.05805</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.05805</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5</v>
+        <v>0.02997</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.02934</v>
       </c>
     </row>
     <row r="4">
@@ -2193,19 +3399,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>0.470588235294118</v>
+        <v>0.0993</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5882</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2857</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4706</v>
+        <v>0</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -2220,6 +3426,496 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0873</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0341</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0312</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0469</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01548</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01575</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.03069</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.02808</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01404</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.04221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0873</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/outputs/BURs/tmp_PES.xlsx
+++ b/outputs/BURs/tmp_PES.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -83,6 +83,9 @@
     <t xml:space="preserve">Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">ytd_annualized</t>
+  </si>
+  <si>
     <t xml:space="preserve">PES</t>
   </si>
   <si>
@@ -95,13 +98,13 @@
     <t xml:space="preserve">Goal</t>
   </si>
   <si>
-    <t xml:space="preserve">CY Actual</t>
-  </si>
-  <si>
     <t xml:space="preserve">Commercial Systems</t>
   </si>
   <si>
     <t xml:space="preserve">PES APAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY Actual</t>
   </si>
   <si>
     <t xml:space="preserve">PES EMEA</t>
@@ -515,16 +518,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>1.3214</v>
@@ -561,16 +567,17 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -605,44 +612,7 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.3214</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1404</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1373</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1379</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.4158</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="U3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -719,43 +689,46 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108</v>
+        <v>0.1068</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0132</v>
+        <v>0.0131</v>
       </c>
       <c r="F2" t="n">
         <v>0.0075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0076</v>
+        <v>0.0075</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0283</v>
+        <v>0.0282</v>
       </c>
       <c r="I2" t="n">
         <v>0.0044</v>
       </c>
       <c r="J2" t="n">
-        <v>0.012</v>
+        <v>0.0119</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0107</v>
+        <v>0.0106</v>
       </c>
       <c r="L2" t="n">
-        <v>0.027</v>
+        <v>0.0269</v>
       </c>
       <c r="M2" t="n">
         <v>0.0113</v>
@@ -764,58 +737,61 @@
         <v>0.0044</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0057</v>
+        <v>0.0056</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0214</v>
+        <v>0.0213</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.007</v>
+        <v>0.0069</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0109</v>
+        <v>0.0102</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0135</v>
+        <v>0.0134</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0313</v>
+        <v>0.0305</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.01188</v>
+        <v>0.01179</v>
       </c>
       <c r="F3" t="n">
         <v>0.00675</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00684</v>
+        <v>0.00675</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02547</v>
+        <v>0.02538</v>
       </c>
       <c r="I3" t="n">
         <v>0.00396</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0108</v>
+        <v>0.01071</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00963</v>
+        <v>0.00954</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0243</v>
+        <v>0.02421</v>
       </c>
       <c r="M3" t="n">
         <v>0.01017</v>
@@ -824,50 +800,55 @@
         <v>0.00396</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00513</v>
+        <v>0.00504</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01926</v>
+        <v>0.01917</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0063</v>
+        <v>0.00621</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00981</v>
+        <v>0.00918</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01215</v>
+        <v>0.01206</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02817</v>
+        <v>0.02745</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.108</v>
+        <v>0.0332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0132</v>
+        <v>0.009</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0075</v>
+        <v>0.0109</v>
       </c>
       <c r="G4" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.0076</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0283</v>
-      </c>
-      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -879,16 +860,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.0996</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.569343065693431</v>
@@ -941,16 +925,17 @@
       <c r="T5" t="n">
         <v>0.5217</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1003,19 +988,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>0.470588235294118</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="E7" t="n">
         <v>0.5882</v>
@@ -1029,7 +1015,9 @@
       <c r="H7" t="n">
         <v>0.4706</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>0.25</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -1041,6 +1029,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1117,16 +1106,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>2.2439</v>
@@ -1163,16 +1155,17 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -1207,44 +1200,7 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.2439</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3421</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1613</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8387</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="U3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1321,19 +1277,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0422</v>
+        <v>0.0414</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1357,10 +1316,10 @@
         <v>0.0024</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0072</v>
+        <v>0.0071</v>
       </c>
       <c r="N2" t="n">
         <v>0.0024</v>
@@ -1369,30 +1328,33 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0097</v>
+        <v>0.0095</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0097</v>
+        <v>0.0095</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0073</v>
+        <v>0.0071</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0124</v>
+        <v>0.012</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0294</v>
+        <v>0.0286</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -1417,10 +1379,10 @@
         <v>0.00216</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00225</v>
+        <v>0.00216</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00648</v>
+        <v>0.00639</v>
       </c>
       <c r="N3" t="n">
         <v>0.00216</v>
@@ -1429,47 +1391,52 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00873</v>
+        <v>0.00855</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00873</v>
+        <v>0.00855</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00657</v>
+        <v>0.00639</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01116</v>
+        <v>0.0108</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02646</v>
+        <v>0.02574</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0422</v>
+        <v>0.017</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0097</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0073</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1481,16 +1448,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.051</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.307692307692308</v>
@@ -1539,16 +1509,17 @@
       <c r="T5" t="n">
         <v>1</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1601,16 +1572,17 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>0.5</v>
@@ -1635,6 +1607,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1711,19 +1684,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0169</v>
+        <v>0.013</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1750,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0041</v>
+        <v>0.0042</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1759,30 +1735,33 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0041</v>
+        <v>0.0042</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0044</v>
+        <v>0.0046</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0044</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0044</v>
+        <v>0.0046</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0131</v>
+        <v>0.0092</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -1810,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00369</v>
+        <v>0.00378</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1819,47 +1798,52 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00369</v>
+        <v>0.00378</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00396</v>
+        <v>0.00414</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00396</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00396</v>
+        <v>0.00414</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01179</v>
+        <v>0.00828</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.0169</v>
+        <v>0.0092</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0092</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1871,16 +1855,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.0276</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
@@ -1929,16 +1916,17 @@
       <c r="T5" t="n">
         <v>0.4</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -1991,19 +1979,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -2013,7 +2002,9 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -2025,6 +2016,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2101,16 +2093,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
         <v>0.0736</v>
@@ -2163,16 +2158,19 @@
       <c r="T2" t="n">
         <v>0.0308</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.1134</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -2223,33 +2221,38 @@
       <c r="T3" t="n">
         <v>0.02772</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.1134</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0736</v>
+        <v>0.0378</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0379</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -2261,16 +2264,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.1134</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -2307,16 +2313,17 @@
       <c r="T5" t="n">
         <v>1</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -2369,16 +2376,17 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2386,12 +2394,16 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
       <c r="G7"/>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -2403,6 +2415,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2479,19 +2492,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0474</v>
+        <v>0.0468</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2512,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0059</v>
+        <v>0.0058</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0059</v>
+        <v>0.0058</v>
       </c>
       <c r="M2" t="n">
         <v>0.0039</v>
@@ -2524,33 +2540,36 @@
         <v>0.0039</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0079</v>
+        <v>0.0078</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0157</v>
+        <v>0.0155</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0039</v>
+        <v>0.0038</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0099</v>
+        <v>0.0097</v>
       </c>
       <c r="S2" t="n">
-        <v>0.012</v>
+        <v>0.0117</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0257</v>
+        <v>0.0252</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -2572,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00531</v>
+        <v>0.00522</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00531</v>
+        <v>0.00522</v>
       </c>
       <c r="M3" t="n">
         <v>0.00351</v>
@@ -2584,50 +2603,55 @@
         <v>0.00351</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00711</v>
+        <v>0.00702</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01413</v>
+        <v>0.01395</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00351</v>
+        <v>0.00342</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00891</v>
+        <v>0.00873</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0108</v>
+        <v>0.01053</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02313</v>
+        <v>0.02268</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0474</v>
+        <v>0.0407</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0203</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0365</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0041</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -2639,16 +2663,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.1221</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.685185185185185</v>
@@ -2701,16 +2728,17 @@
       <c r="T5" t="n">
         <v>0.5455</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -2763,33 +2791,36 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>0.214285714285714</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="E7" t="n">
         <v>0.1667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G7" t="n">
         <v>0.3333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2143</v>
-      </c>
-      <c r="I7"/>
+        <v>0.2308</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -2801,6 +2832,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2877,19 +2909,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1229</v>
+        <v>0.1223</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2922,33 +2957,36 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0238</v>
+        <v>0.0235</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0477</v>
+        <v>0.0475</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0059</v>
+        <v>0.0058</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0366</v>
+        <v>0.0361</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0301</v>
+        <v>0.0298</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0722</v>
+        <v>0.0713</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -2982,50 +3020,55 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02142</v>
+        <v>0.02115</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04293</v>
+        <v>0.04275</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00531</v>
+        <v>0.00522</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03294</v>
+        <v>0.03249</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02709</v>
+        <v>0.02682</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06498</v>
+        <v>0.06417</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1229</v>
+        <v>0.0549</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0186</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
+        <v>0.037</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0179</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -3037,16 +3080,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.1647</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.7</v>
@@ -3089,16 +3135,17 @@
       <c r="T5" t="n">
         <v>0.3333</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -3151,19 +3198,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>0.636363636363636</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E7" t="n">
         <v>0.8571</v>
@@ -3177,7 +3225,9 @@
       <c r="H7" t="n">
         <v>0.6364</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -3189,6 +3239,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3265,19 +3316,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0993</v>
+        <v>0.1027</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3304,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0645</v>
+        <v>0.0667</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3313,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0645</v>
+        <v>0.0667</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3322,21 +3376,24 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0333</v>
+        <v>0.0345</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0326</v>
+        <v>0.0337</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.3081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -3364,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05805</v>
+        <v>0.06003</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3373,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05805</v>
+        <v>0.06003</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -3382,27 +3439,30 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02997</v>
+        <v>0.03105</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02934</v>
+        <v>0.03033</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.3081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0993</v>
+        <v>0.1027</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0345</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3411,9 +3471,11 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0337</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0714</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -3425,16 +3487,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.3081</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.777777777777778</v>
@@ -3467,16 +3532,17 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -3529,6 +3595,7 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3605,19 +3672,22 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0873</v>
+        <v>0.0877</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3653,30 +3723,33 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0341</v>
+        <v>0.0343</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0312</v>
+        <v>0.0317</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0156</v>
+        <v>0.0159</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0469</v>
+        <v>0.0476</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -3713,33 +3786,36 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03069</v>
+        <v>0.03087</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02808</v>
+        <v>0.02853</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01404</v>
+        <v>0.01431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04221</v>
+        <v>0.04284</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0873</v>
+        <v>0.0573</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3748,12 +3824,14 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
+        <v>0.0308</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0238</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -3765,16 +3843,19 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4" t="n">
+        <v>0.1719</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>0.428571428571429</v>
@@ -3815,16 +3896,17 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
@@ -3877,19 +3959,20 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -3903,7 +3986,9 @@
       <c r="H7" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -3915,6 +4000,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/BURs/tmp_PES.xlsx
+++ b/outputs/BURs/tmp_PES.xlsx
@@ -21,12 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
   <si>
     <t xml:space="preserve">division_function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -92,10 +95,13 @@
     <t xml:space="preserve">Climate Solutions</t>
   </si>
   <si>
+    <t xml:space="preserve">Voluntary Turnover Professional</t>
+  </si>
+  <si>
     <t xml:space="preserve">PY Actual</t>
   </si>
   <si>
-    <t xml:space="preserve">Goal</t>
+    <t xml:space="preserve">AOP</t>
   </si>
   <si>
     <t xml:space="preserve">Commercial Systems</t>
@@ -104,7 +110,10 @@
     <t xml:space="preserve">PES APAC</t>
   </si>
   <si>
-    <t xml:space="preserve">CY Actual</t>
+    <t xml:space="preserve">Commit/Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Fill Rate</t>
   </si>
   <si>
     <t xml:space="preserve">PES EMEA</t>
@@ -521,45 +530,50 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.3214</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1404</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.1373</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.1379</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.4158</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.2273</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1.1429</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2.5</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>1.7476</v>
       </c>
-      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -568,43 +582,46 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.12636</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.12357</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.12411</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.37422</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.20457</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>1.02861</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2.25</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1.57284</v>
       </c>
-      <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -613,6 +630,7 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
+      <c r="V3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -692,253 +710,290 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1068</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0131</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0075</v>
       </c>
       <c r="G2" t="n">
         <v>0.0075</v>
       </c>
       <c r="H2" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.0282</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.0044</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.0119</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.0106</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.0269</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0113</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0044</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0056</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0213</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0069</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0102</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0134</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0305</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.0996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.01179</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00675</v>
       </c>
       <c r="G3" t="n">
         <v>0.00675</v>
       </c>
       <c r="H3" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.02538</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.00396</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.01071</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.00954</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02421</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.01017</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.00396</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.00504</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.01917</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00621</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.00918</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.01206</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.02745</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.0996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0332</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.009</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0109</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.0058</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0256</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0076</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0083</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.0996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.569343065693431</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.7</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.4</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.6429</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.6207</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.5714</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.6923</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.2308</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.5185</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.7</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.5833</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.6452</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.4286</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.625</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.5217</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -988,48 +1043,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.5882</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.4</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.2857</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.4706</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.25</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1109,45 +1192,50 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>2.2439</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3421</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.1613</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.3333</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.8387</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.1053</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1.1111</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>4</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>2</v>
       </c>
-      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -1156,43 +1244,46 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>0.30789</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.14517</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.29997</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.75483</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.09477</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.99999</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>3.6</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1.8</v>
       </c>
-      <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -1201,6 +1292,7 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
+      <c r="V3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1280,23 +1372,26 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0414</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -1313,53 +1408,56 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0024</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0024</v>
       </c>
       <c r="M2" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.0071</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0024</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0.0095</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0095</v>
       </c>
       <c r="R2" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.0071</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.012</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0286</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -1376,120 +1474,148 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00216</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0.00216</v>
       </c>
       <c r="M3" t="n">
+        <v>0.00216</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.00639</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.00216</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.00855</v>
       </c>
       <c r="R3" t="n">
+        <v>0.00855</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.00639</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.0108</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.02574</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.017</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0024</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0048</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.0024</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0097</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0073</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.00425</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.00425</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00425</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.00425</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.00425</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.01275</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.00425</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.00425</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.00425</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.01275</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.307692307692308</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5"/>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5"/>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.125</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.6</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.3529</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -1500,30 +1626,33 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="S5"/>
-      <c r="T5" t="n">
+      <c r="S5" t="n">
         <v>1</v>
       </c>
-      <c r="U5"/>
+      <c r="T5"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
-      </c>
       <c r="E6" t="n">
         <v>0.5</v>
       </c>
@@ -1572,42 +1701,70 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I7"/>
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1687,23 +1844,26 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.013</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -1726,47 +1886,50 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.0042</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.0042</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0046</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.0046</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0092</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.0276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -1789,92 +1952,120 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.00378</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.00378</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00414</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.00414</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.00828</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.0276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0092</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0046</v>
       </c>
       <c r="H4" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.0092</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0023</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.0276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.25</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -1888,48 +2079,51 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.4</v>
       </c>
-      <c r="M5"/>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5"/>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.4</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -1979,44 +2173,72 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
       </c>
       <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="F7"/>
       <c r="G7"/>
-      <c r="H7" t="n">
+      <c r="H7"/>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2096,23 +2318,26 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0736</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -2126,56 +2351,59 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.006</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.006</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0122</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0185</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.0061</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0367</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0061</v>
       </c>
       <c r="R2" t="n">
         <v>0.0061</v>
       </c>
       <c r="S2" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.0187</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0308</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.1134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -2189,144 +2417,175 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.0054</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.0054</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.01098</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.01665</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.00549</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.03303</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.00549</v>
       </c>
       <c r="R3" t="n">
         <v>0.00549</v>
       </c>
       <c r="S3" t="n">
+        <v>0.00549</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.01683</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.02772</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.1134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.0378</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0162</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0054</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.0164</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0379</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.02835</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.02835</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.00945</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.02835</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.1134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
       <c r="G5"/>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H5"/>
       <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J5"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5"/>
-      <c r="L5" t="n">
+      <c r="L5"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="M5"/>
       <c r="N5"/>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5"/>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="R5"/>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
       <c r="S5"/>
-      <c r="T5" t="n">
+      <c r="T5"/>
+      <c r="U5" t="n">
         <v>1</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -2376,46 +2635,74 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7"/>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7"/>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2495,23 +2782,26 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0468</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -2528,53 +2818,56 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0058</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0039</v>
+        <v>0.0058</v>
       </c>
       <c r="N2" t="n">
         <v>0.0039</v>
       </c>
       <c r="O2" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.0078</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0155</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0038</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0097</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0117</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0252</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.1221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -2591,157 +2884,188 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00522</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0.00522</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00351</v>
+        <v>0.00522</v>
       </c>
       <c r="N3" t="n">
         <v>0.00351</v>
       </c>
       <c r="O3" t="n">
+        <v>0.00351</v>
+      </c>
+      <c r="P3" t="n">
         <v>0.00702</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.01395</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00342</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.00873</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.01053</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.02268</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.1221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0407</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0121</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0203</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.0041</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0365</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0041</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.010175</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.010175</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.030525</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.010175</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.010175</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.010175</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.030525</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.010175</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.010175</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.010175</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.030525</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.1221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.685185185185185</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.8</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.8333</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.7692</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.875</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.625</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.75</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.8333</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.75</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.7857</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0.75</v>
       </c>
       <c r="T5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.5455</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -2791,48 +3115,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1667</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.25</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.3333</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.2308</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.2</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2912,23 +3264,26 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1223</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -2951,47 +3306,50 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.0241</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.0235</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.0475</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0058</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0361</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.0298</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0713</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.1647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -3014,107 +3372,135 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.02169</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>0.02115</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.04275</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.00522</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.03249</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.02682</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.06417</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.1647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0549</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0187</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.0186</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.037</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0179</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.013725</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.013725</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.041175</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.013725</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.013725</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.013725</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.041175</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.013725</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.013725</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.013725</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.041175</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.1647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.7</v>
       </c>
-      <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" t="n">
+      <c r="I5"/>
+      <c r="J5" t="n">
         <v>0.8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.5556</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -3126,29 +3512,32 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R5"/>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5"/>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.3333</v>
       </c>
-      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -3198,48 +3587,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.8571</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.6364</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3319,23 +3736,26 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1027</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -3358,47 +3778,50 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.0667</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.0667</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.0345</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.0337</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.3081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -3421,110 +3844,140 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.06003</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.06003</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.03105</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.03033</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.3081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1027</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0345</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.0337</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0714</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.025675</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.025675</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.077025</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.025675</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.025675</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.025675</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.077025</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.025675</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.025675</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.025675</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.077025</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.3081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.777777777777778</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="F5"/>
-      <c r="G5" t="n">
+      <c r="G5"/>
+      <c r="H5" t="n">
         <v>0.8</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.8333</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="J5"/>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
+      <c r="K5"/>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -3533,19 +3986,20 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -3595,7 +4049,10 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3675,23 +4132,26 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0877</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -3714,47 +4174,50 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.0172</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.0175</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.0343</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.0317</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.0159</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.0476</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.1719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -3777,139 +4240,170 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.01548</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.01575</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.03087</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.02853</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.01431</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.04284</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.1719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0573</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0312</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.0308</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0238</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="K4" t="n">
+        <v>0.014325</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.014325</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.042975</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.014325</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.014325</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.014325</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.042975</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.014325</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.014325</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.014325</v>
+      </c>
       <c r="U4" t="n">
+        <v>0.042975</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.1719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.428571428571429</v>
       </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
+      <c r="F5"/>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.5</v>
       </c>
       <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="K5"/>
-      <c r="L5" t="n">
+      <c r="L5"/>
+      <c r="M5" t="n">
         <v>0.6667</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
       <c r="O5"/>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5"/>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5"/>
+      <c r="P5"/>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -3959,48 +4453,76 @@
       <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6"/>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
+      <c r="K7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/BURs/tmp_PES.xlsx
+++ b/outputs/BURs/tmp_PES.xlsx
@@ -32,10 +32,10 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">data_source</t>
+    <t xml:space="preserve">ytd_value</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd</t>
+    <t xml:space="preserve">data_source</t>
   </si>
   <si>
     <t xml:space="preserve">Jan</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_annualized</t>
+    <t xml:space="preserve">FY</t>
   </si>
   <si>
     <t xml:space="preserve">PES</t>
@@ -141,14 +141,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="10">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="173" formatCode="0.0%"/>
+    <numFmt numFmtId="174" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,8 +187,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,45 +570,45 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="1" t="n">
+        <v>0.1404</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.1373</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.1379</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.4158</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.2273</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1.1429</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1.7476</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="n">
         <v>1.3214</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.1404</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1373</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1379</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4158</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2273</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.1429</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.7476</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -594,43 +620,45 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.12636</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.12357</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.12411</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.37422</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="1" t="n">
         <v>0.20457</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="1" t="n">
         <v>1.02861</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="1" t="n">
         <v>2.25</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="1" t="n">
         <v>1.57284</v>
       </c>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="n">
+        <v>1.18926</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,62 +752,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="n">
+        <v>0.0996</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="10" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="L2" s="10" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="M2" s="10" t="n">
+        <v>0.0269</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="O2" s="10" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="P2" s="10" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="Q2" s="10" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="R2" s="10" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="S2" s="10" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="T2" s="10" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="U2" s="10" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="V2" s="10" t="n">
         <v>0.1068</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0282</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0119</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0106</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0269</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0113</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0213</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0102</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0134</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0305</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0996</v>
       </c>
     </row>
     <row r="3">
@@ -792,60 +820,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="n">
+        <v>0.0996</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
+      <c r="F3" s="10" t="n">
         <v>0.01179</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="10" t="n">
         <v>0.00675</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="10" t="n">
         <v>0.00675</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="10" t="n">
         <v>0.02538</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="10" t="n">
         <v>0.00396</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="10" t="n">
         <v>0.01071</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="10" t="n">
         <v>0.00954</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="10" t="n">
         <v>0.02421</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="10" t="n">
         <v>0.01017</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="10" t="n">
         <v>0.00396</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="10" t="n">
         <v>0.00504</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="10" t="n">
         <v>0.01917</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="10" t="n">
         <v>0.00621</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="10" t="n">
         <v>0.00918</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="10" t="n">
         <v>0.01206</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="10" t="n">
         <v>0.02745</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.0996</v>
+      <c r="V3" s="10" t="n">
+        <v>0.09612</v>
       </c>
     </row>
     <row r="4">
@@ -858,61 +888,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="n">
+        <v>0.0996</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0332</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="10" t="n">
         <v>0.009</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="10" t="n">
         <v>0.0109</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="10" t="n">
         <v>0.0058</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="10" t="n">
         <v>0.0256</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="10" t="n">
         <v>0.0076</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="10" t="n">
         <v>0.0083</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="10" t="n">
         <v>0.0083</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="10" t="n">
         <v>0.0249</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="10" t="n">
         <v>0.0083</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="10" t="n">
         <v>0.0083</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="10" t="n">
         <v>0.0083</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="10" t="n">
         <v>0.0249</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="10" t="n">
         <v>0.0083</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="10" t="n">
         <v>0.0083</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="10" t="n">
         <v>0.0083</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="10" t="n">
         <v>0.0249</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="10" t="n">
         <v>0.0996</v>
       </c>
     </row>
@@ -926,61 +956,63 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0.6429</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>0.6207</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>0.6923</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>0.2308</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <v>0.5185</v>
+      </c>
+      <c r="N5" s="10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="10" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="Q5" s="10" t="n">
+        <v>0.6452</v>
+      </c>
+      <c r="R5" s="10" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="S5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="10" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="U5" s="10" t="n">
+        <v>0.5217</v>
+      </c>
+      <c r="V5" s="10" t="n">
         <v>0.569343065693431</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6429</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6207</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5714</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6923</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.2308</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.5185</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.6452</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.5217</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -992,61 +1024,63 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="10" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1058,61 +1092,63 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="n">
+        <v>0.41304347826087</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="10" t="n">
+        <v>0.5882</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>0.4706</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.5882</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2857</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.4706</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" s="10" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1206,45 +1242,45 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="2" t="n">
+        <v>0.3421</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.1613</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.8387</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1.1111</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="n">
         <v>2.2439</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.3421</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1613</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.8387</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.1111</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1256,43 +1292,45 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.30789</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2" t="n">
         <v>0.14517</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.29997</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2" t="n">
         <v>0.75483</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2" t="n">
         <v>0.09477</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2" t="n">
         <v>0.99999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="n">
+        <v>2.01951</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,62 +1424,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="V2" s="3" t="n">
         <v>0.0414</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0095</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0095</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0286</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.051</v>
       </c>
     </row>
     <row r="3">
@@ -1454,60 +1492,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>0.00216</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="3" t="n">
         <v>0.00216</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="3" t="n">
         <v>0.00639</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="3" t="n">
         <v>0.00216</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="n">
         <v>0.00855</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="3" t="n">
         <v>0.00855</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="3" t="n">
         <v>0.00639</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="3" t="n">
         <v>0.0108</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="3" t="n">
         <v>0.02574</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.051</v>
+      <c r="V3" s="3" t="n">
+        <v>0.03726</v>
       </c>
     </row>
     <row r="4">
@@ -1520,61 +1560,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.0024</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="3" t="n">
         <v>0.0048</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="3" t="n">
         <v>0.0024</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="3" t="n">
         <v>0.0097</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="3" t="n">
         <v>0.0073</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="3" t="n">
         <v>0.00425</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="3" t="n">
         <v>0.00425</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="3" t="n">
         <v>0.01275</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="3" t="n">
         <v>0.00425</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="3" t="n">
         <v>0.00425</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="3" t="n">
         <v>0.00425</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="3" t="n">
         <v>0.01275</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="3" t="n">
         <v>0.00425</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="3" t="n">
         <v>0.00425</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="3" t="n">
         <v>0.00425</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="3" t="n">
         <v>0.01275</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="3" t="n">
         <v>0.051</v>
       </c>
     </row>
@@ -1588,57 +1628,59 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3" t="n">
         <v>0.307692307692308</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.3529</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1650,61 +1692,63 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1716,55 +1760,57 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1858,62 +1904,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="V2" s="4" t="n">
         <v>0.013</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0276</v>
       </c>
     </row>
     <row r="3">
@@ -1926,60 +1972,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>0.00378</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="O3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4" t="n">
         <v>0.00378</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="4" t="n">
         <v>0.00414</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
         <v>0.00414</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="4" t="n">
         <v>0.00828</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.0276</v>
+      <c r="V3" s="4" t="n">
+        <v>0.0117</v>
       </c>
     </row>
     <row r="4">
@@ -1992,61 +2040,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>0.0092</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>0.0023</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4" t="n">
         <v>0.0023</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4" t="n">
         <v>0.0069</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="4" t="n">
         <v>0.0023</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="4" t="n">
         <v>0.0023</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="4" t="n">
         <v>0.0023</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="4" t="n">
         <v>0.0069</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="4" t="n">
         <v>0.0023</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="4" t="n">
         <v>0.0023</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="4" t="n">
         <v>0.0023</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="4" t="n">
         <v>0.0069</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="4" t="n">
         <v>0.0276</v>
       </c>
     </row>
@@ -2060,57 +2108,59 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5"/>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2122,61 +2172,63 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2188,57 +2240,59 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" t="n">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V7"/>
+      <c r="J7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2332,62 +2386,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="n">
+        <v>0.1134</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>0.0367</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>0.0308</v>
+      </c>
+      <c r="V2" s="5" t="n">
         <v>0.0736</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0122</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0367</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0187</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0308</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1134</v>
       </c>
     </row>
     <row r="3">
@@ -2400,60 +2454,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="n">
+        <v>0.1134</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="n">
         <v>0.0054</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>0.0054</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="5" t="n">
         <v>0.01098</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="5" t="n">
         <v>0.01665</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="5" t="n">
         <v>0.00549</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="5" t="n">
         <v>0.03303</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="5" t="n">
         <v>0.00549</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="5" t="n">
         <v>0.00549</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="5" t="n">
         <v>0.01683</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="5" t="n">
         <v>0.02772</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.1134</v>
+      <c r="V3" s="5" t="n">
+        <v>0.06624</v>
       </c>
     </row>
     <row r="4">
@@ -2466,61 +2522,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="n">
+        <v>0.1134</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0378</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5" t="n">
         <v>0.0162</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5" t="n">
         <v>0.0054</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="5" t="n">
         <v>0.0164</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="5" t="n">
         <v>0.0379</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="n">
         <v>0.00945</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="5" t="n">
         <v>0.00945</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="5" t="n">
         <v>0.02835</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="5" t="n">
         <v>0.00945</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="5" t="n">
         <v>0.00945</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="5" t="n">
         <v>0.00945</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="5" t="n">
         <v>0.02835</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="5" t="n">
         <v>0.00945</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="5" t="n">
         <v>0.00945</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="5" t="n">
         <v>0.00945</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="5" t="n">
         <v>0.02835</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="5" t="n">
         <v>0.1134</v>
       </c>
     </row>
@@ -2534,45 +2590,47 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" t="n">
+      <c r="J5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5" t="n">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" t="n">
+      <c r="Q5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5" t="n">
+      <c r="V5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2584,61 +2642,63 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2650,59 +2710,61 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7"/>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2796,62 +2858,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="n">
+        <v>0.1221</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="V2" s="6" t="n">
         <v>0.0468</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0078</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0155</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0117</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0252</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1221</v>
       </c>
     </row>
     <row r="3">
@@ -2864,60 +2926,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="n">
+        <v>0.1221</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="F3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="n">
         <v>0.00522</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="6" t="n">
         <v>0.00522</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="6" t="n">
         <v>0.00351</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="6" t="n">
         <v>0.00351</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="6" t="n">
         <v>0.00702</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="6" t="n">
         <v>0.01395</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="6" t="n">
         <v>0.00342</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="6" t="n">
         <v>0.00873</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="6" t="n">
         <v>0.01053</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="6" t="n">
         <v>0.02268</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.1221</v>
+      <c r="V3" s="6" t="n">
+        <v>0.04212</v>
       </c>
     </row>
     <row r="4">
@@ -2930,61 +2994,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="n">
+        <v>0.1221</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0407</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="6" t="n">
         <v>0.0121</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="6" t="n">
         <v>0.0203</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="6" t="n">
         <v>0.0041</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="6" t="n">
         <v>0.0365</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="6" t="n">
         <v>0.0041</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="6" t="n">
         <v>0.010175</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="6" t="n">
         <v>0.010175</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="6" t="n">
         <v>0.030525</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="6" t="n">
         <v>0.010175</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="6" t="n">
         <v>0.010175</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="6" t="n">
         <v>0.010175</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="6" t="n">
         <v>0.030525</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="6" t="n">
         <v>0.010175</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="6" t="n">
         <v>0.010175</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="6" t="n">
         <v>0.010175</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="6" t="n">
         <v>0.030525</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="6" t="n">
         <v>0.1221</v>
       </c>
     </row>
@@ -2998,61 +3062,63 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>0.7857</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>0.5455</v>
+      </c>
+      <c r="V5" s="6" t="n">
         <v>0.685185185185185</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7692</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.7857</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.5455</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3064,61 +3130,63 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3130,61 +3198,63 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="6" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2308</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.1667</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.2308</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" s="6" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3278,62 +3348,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="O2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="Q2" s="7" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="R2" s="7" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="S2" s="7" t="n">
+        <v>0.0361</v>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>0.0298</v>
+      </c>
+      <c r="U2" s="7" t="n">
+        <v>0.0713</v>
+      </c>
+      <c r="V2" s="7" t="n">
         <v>0.1223</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0235</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0475</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0361</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0298</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0713</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1647</v>
       </c>
     </row>
     <row r="3">
@@ -3346,60 +3416,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="F3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7" t="n">
         <v>0.02169</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="O3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7" t="n">
         <v>0.02115</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="7" t="n">
         <v>0.04275</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="7" t="n">
         <v>0.00522</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="7" t="n">
         <v>0.03249</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="7" t="n">
         <v>0.02682</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="7" t="n">
         <v>0.06417</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.1647</v>
+      <c r="V3" s="7" t="n">
+        <v>0.11007</v>
       </c>
     </row>
     <row r="4">
@@ -3412,61 +3484,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0549</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="7" t="n">
         <v>0.0187</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="7" t="n">
         <v>0.0186</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
         <v>0.037</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="7" t="n">
         <v>0.0179</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="7" t="n">
         <v>0.013725</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="7" t="n">
         <v>0.013725</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="7" t="n">
         <v>0.041175</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="7" t="n">
         <v>0.013725</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="7" t="n">
         <v>0.013725</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="7" t="n">
         <v>0.013725</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="7" t="n">
         <v>0.041175</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="7" t="n">
         <v>0.013725</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="7" t="n">
         <v>0.013725</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="7" t="n">
         <v>0.013725</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="7" t="n">
         <v>0.041175</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="7" t="n">
         <v>0.1647</v>
       </c>
     </row>
@@ -3480,51 +3552,53 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="V5" s="7" t="n">
         <v>0.7</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.5556</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S5"/>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3536,61 +3610,63 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3602,61 +3678,63 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="7" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0.6364</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.8571</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.6364</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" s="7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3750,62 +3828,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="n">
+        <v>0.3081</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="O2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="R2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="U2" s="8" t="n">
+        <v>0.0337</v>
+      </c>
+      <c r="V2" s="8" t="n">
         <v>0.1027</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0667</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0667</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0345</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0337</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.3081</v>
       </c>
     </row>
     <row r="3">
@@ -3818,60 +3896,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="n">
+        <v>0.3081</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="F3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="n">
         <v>0.06003</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="O3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8" t="n">
         <v>0.06003</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="R3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8" t="n">
         <v>0.03105</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="8" t="n">
         <v>0.03033</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.3081</v>
+      <c r="V3" s="8" t="n">
+        <v>0.09243</v>
       </c>
     </row>
     <row r="4">
@@ -3884,61 +3964,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="n">
+        <v>0.3081</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.1027</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" s="8" t="n">
         <v>0.0345</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="n">
         <v>0.0337</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="8" t="n">
         <v>0.0714</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="8" t="n">
         <v>0.025675</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="8" t="n">
         <v>0.025675</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="8" t="n">
         <v>0.077025</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="8" t="n">
         <v>0.025675</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="8" t="n">
         <v>0.025675</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="8" t="n">
         <v>0.025675</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="8" t="n">
         <v>0.077025</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="8" t="n">
         <v>0.025675</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="8" t="n">
         <v>0.025675</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="8" t="n">
         <v>0.025675</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="8" t="n">
         <v>0.077025</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="8" t="n">
         <v>0.3081</v>
       </c>
     </row>
@@ -3952,41 +4032,41 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8" t="n">
         <v>0.777777777777778</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3998,61 +4078,61 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4146,62 +4226,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="n">
+        <v>0.1719</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="O2" s="9" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="P2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9" t="n">
+        <v>0.0343</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>0.0317</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="T2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="V2" s="9" t="n">
         <v>0.0877</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0172</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0175</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0343</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0317</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0159</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1719</v>
       </c>
     </row>
     <row r="3">
@@ -4214,60 +4294,62 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="n">
+        <v>0.1719</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9" t="n">
         <v>0.01548</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="9" t="n">
         <v>0.01575</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9" t="n">
         <v>0.03087</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="9" t="n">
         <v>0.02853</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="9" t="n">
         <v>0.01431</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="T3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9" t="n">
         <v>0.04284</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.1719</v>
+      <c r="V3" s="9" t="n">
+        <v>0.07893</v>
       </c>
     </row>
     <row r="4">
@@ -4280,61 +4362,61 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="n">
+        <v>0.1719</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0573</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
         <v>0.0312</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="9" t="n">
         <v>0.0308</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="9" t="n">
         <v>0.0238</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="9" t="n">
         <v>0.014325</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="9" t="n">
         <v>0.014325</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="9" t="n">
         <v>0.042975</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="9" t="n">
         <v>0.014325</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="9" t="n">
         <v>0.014325</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="9" t="n">
         <v>0.014325</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="9" t="n">
         <v>0.042975</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="9" t="n">
         <v>0.014325</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="9" t="n">
         <v>0.014325</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="9" t="n">
         <v>0.014325</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="9" t="n">
         <v>0.042975</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="9" t="n">
         <v>0.1719</v>
       </c>
     </row>
@@ -4348,49 +4430,51 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9" t="n">
         <v>0.428571428571429</v>
       </c>
-      <c r="F5"/>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5"/>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5"/>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4402,61 +4486,63 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6"/>
+      <c r="F6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4468,61 +4554,63 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="V7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
